--- a/pathWay.xlsx
+++ b/pathWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nira\EmployeeManagementFrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1324F-8426-4A69-B15D-2761FC39FCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464DECE3-F0E6-4421-A1E5-A1457527C081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F1C29D8D-B93D-4747-9A8A-C389FA850BD7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Page/</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>rootReducer.js</t>
+  </si>
+  <si>
+    <t>TechnologiesProject.js</t>
+  </si>
+  <si>
+    <t>TaskManagment.js</t>
+  </si>
+  <si>
+    <t>tasks/</t>
+  </si>
+  <si>
+    <t>task/</t>
+  </si>
+  <si>
+    <t>detailsOfTask/</t>
+  </si>
+  <si>
+    <t>AddEditFormTask.js</t>
+  </si>
+  <si>
+    <t>DetailsOfTask.js</t>
+  </si>
+  <si>
+    <t>listTasks/</t>
+  </si>
+  <si>
+    <t>listTasks.js</t>
   </si>
 </sst>
 </file>
@@ -159,7 +186,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -230,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,6 +272,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE03752-506D-4C0E-B5AD-D6DCEAD4A98B}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -629,6 +664,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -704,9 +742,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/pathWay.xlsx
+++ b/pathWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nira\EmployeeManagementFrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464DECE3-F0E6-4421-A1E5-A1457527C081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B73EC-A418-426F-B2A3-AB85B0D1423D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F1C29D8D-B93D-4747-9A8A-C389FA850BD7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Page/</t>
   </si>
@@ -84,9 +84,6 @@
     <t>UploadedFilesProject.js</t>
   </si>
   <si>
-    <t>Saga</t>
-  </si>
-  <si>
     <t>redux/Actions</t>
   </si>
   <si>
@@ -142,6 +139,24 @@
   </si>
   <si>
     <t>listTasks.js</t>
+  </si>
+  <si>
+    <t>task.action.js</t>
+  </si>
+  <si>
+    <t>task.saga</t>
+  </si>
+  <si>
+    <t>Saga/</t>
+  </si>
+  <si>
+    <t>task.reducer.js</t>
+  </si>
+  <si>
+    <t>layout/</t>
+  </si>
+  <si>
+    <t>TaskBar.js</t>
   </si>
 </sst>
 </file>
@@ -186,7 +201,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +243,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -263,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,7 +281,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE03752-506D-4C0E-B5AD-D6DCEAD4A98B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -619,34 +627,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -671,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -742,58 +750,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8" t="s">
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/pathWay.xlsx
+++ b/pathWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nira\EmployeeManagementFrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B73EC-A418-426F-B2A3-AB85B0D1423D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E7EB4-0709-404B-AE38-5682B03AFC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F1C29D8D-B93D-4747-9A8A-C389FA850BD7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Page/</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>TaskBar.js</t>
+  </si>
+  <si>
+    <t>AllTaskCalendar</t>
   </si>
 </sst>
 </file>
@@ -601,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE03752-506D-4C0E-B5AD-D6DCEAD4A98B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -829,6 +832,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
